--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nedwa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nedwa\Documents\GitHub\CSE_165_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6DE3F9-E264-491D-B709-A33ACAAB1FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7599D9-BA7D-4FA2-AEF4-310686C6AE07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B9B97DBB-7F79-4711-BB2D-33EF0A229540}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,98 +570,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1">
-        <v>68324</v>
+        <v>23486</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>530988</v>
+        <v>31366</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>337510</v>
+        <v>33613</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>868830</v>
+        <v>49648</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>2996968</v>
+        <v>58623</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>525937</v>
+        <v>58755</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>342718</v>
+        <v>63994</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>74575</v>
+        <v>68324</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>2269798</v>
+        <v>74575</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>1085449</v>
+        <v>96624</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>33613</v>
+        <v>108512</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>367115</v>
+        <v>110021</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,303 +674,303 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>1358716</v>
+        <v>123233</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>733040</v>
+        <v>156406</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>312636</v>
+        <v>191405</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>452059</v>
+        <v>199333</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>461173</v>
+        <v>221434</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>697398</v>
+        <v>312636</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>453316</v>
+        <v>317980</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>63994</v>
+        <v>337510</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>961082</v>
+        <v>342718</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>58755</v>
+        <v>367115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B24">
-        <v>606153</v>
+        <v>400417</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>31366</v>
+        <v>415942</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>110021</v>
+        <v>452059</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>988016</v>
+        <v>453316</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>108512</v>
+        <v>461173</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>221434</v>
+        <v>525937</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>96624</v>
+        <v>530988</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>1007894</v>
+        <v>584517</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>199333</v>
+        <v>606153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>317980</v>
+        <v>666381</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B34">
-        <v>2070603</v>
+        <v>666650</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>1083609</v>
+        <v>697398</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>49648</v>
+        <v>733040</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>191405</v>
+        <v>838061</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>1177967</v>
+        <v>868830</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>1495777</v>
+        <v>961082</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>584517</v>
+        <v>988016</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>123233</v>
+        <v>1007894</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>838061</v>
+        <v>1083609</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>2914818</v>
+        <v>1085449</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>400417</v>
+        <v>1177967</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>666650</v>
+        <v>1358716</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>23486</v>
+        <v>1495777</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>415942</v>
+        <v>2070603</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>666381</v>
+        <v>2269798</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>156406</v>
+        <v>2914818</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>58623</v>
+        <v>2996968</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B55">
-    <sortCondition ref="A1:A55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B50">
+    <sortCondition ref="B1:B50"/>
   </sortState>
   <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
